--- a/Python/M.xlsx
+++ b/Python/M.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>it</t>
   </si>
@@ -25,7 +25,37 @@
     <t>x</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>[7.5    0.     2.5    0.     0.     0.     0.0001]</t>
+  </si>
+  <si>
+    <t>[11.7521  2.6145  6.5422  1.0707  1.8944  2.7147  5.5616]</t>
+  </si>
+  <si>
+    <t>[8.8231 0.0261 1.882  0.188  0.2508 0.2401 1.2309]</t>
+  </si>
+  <si>
+    <t>[7.8636 0.0202 2.2074 0.0283 0.0027 0.0198 0.6492]</t>
+  </si>
+  <si>
+    <t>[7.5037 0.0003 2.4972 0.0003 0.     0.0003 0.0065]</t>
+  </si>
+  <si>
+    <t>[ 0. 20.  0.  8.  8.  8.  1.]</t>
+  </si>
+  <si>
+    <t>[ 0.8077  7.837   5.3498 11.7344  7.1923  4.9212  3.2711]</t>
+  </si>
+  <si>
+    <t>[ 0.0632 10.7105  3.7537 11.6273  7.9368  6.0915  2.8453]</t>
+  </si>
+  <si>
+    <t>[ 0.0121 19.9242  0.0375  8.0134  7.9879  7.9752  1.0127]</t>
+  </si>
+  <si>
+    <t>[ 0.0001 19.9982  0.0008  8.0006  7.9999  7.9995  1.0003]</t>
   </si>
 </sst>
 </file>
@@ -383,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,60 +429,92 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>275.1724137931036</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>122.7226469119777</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>17.04373194497468</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>17.04373194497468</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+      <c r="B5">
         <v>1.643727157761631</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.0198105091945564</v>
       </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.0001981099498493677</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
